--- a/courses.xlsx
+++ b/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梅某彦\Desktop\毕设\hb-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B957757-335D-4514-95D2-F348B95987D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C58323-7AB0-4120-AFA8-E1B29F7A5C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="120" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:3456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -380,9 +392,11 @@
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,8 +406,14 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -402,6 +422,12 @@
       </c>
       <c r="C2" t="s">
         <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/courses.xlsx
+++ b/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梅某彦\Desktop\毕设\hb-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C58323-7AB0-4120-AFA8-E1B29F7A5C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D23F274-5D83-49E5-B66A-F807CC2D30C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="120" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t>http://127.0.0.1:3456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui-for-docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全,upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具,docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:3457</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui-docker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -394,9 +418,10 @@
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="28.77734375" customWidth="1"/>
     <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +437,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -428,6 +456,29 @@
       </c>
       <c r="E2" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/courses.xlsx
+++ b/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梅某彦\Desktop\毕设\hb-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D23F274-5D83-49E5-B66A-F807CC2D30C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7941EE9D-5AFB-4A44-96A6-1F4E92B7B731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="120" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,17 @@
   </si>
   <si>
     <t>ui-docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqli-labs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:3458</t>
+  </si>
+  <si>
+    <t>安全,sql</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -481,6 +492,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/courses.xlsx
+++ b/courses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梅某彦\Desktop\毕设\hb-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7941EE9D-5AFB-4A44-96A6-1F4E92B7B731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5157E0E5-5EFB-4B44-BBEF-766E092B1445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="120" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,14 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安全,upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具,docker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://127.0.0.1:3457</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,10 +79,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>c0ny1/upload-labs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audi-1/sqli-labs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kevana/ui-for-docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vulhub/vulhub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vulhub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dep-scan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owasp-dep-scan/dep-scan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏洞扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏洞复现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信安综合实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvwa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://127.0.0.1:3458</t>
-  </si>
-  <si>
-    <t>安全,sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:3459</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靶场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靶场,安全,upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具,docker可视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靶场,安全,sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>digininja/DVWA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -457,10 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -469,7 +531,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -477,39 +539,89 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/courses.xlsx
+++ b/courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梅某彦\Desktop\毕设\hb-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5157E0E5-5EFB-4B44-BBEF-766E092B1445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FBB868-0AFF-42EF-A4B3-79C4E3836420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="120" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1668" yWindow="2568" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,6 +152,14 @@
   </si>
   <si>
     <t>digininja/DVWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/vulhub/vulhub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server2,HostA,HostM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +488,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -493,7 +497,7 @@
     <col min="2" max="2" width="26.21875" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="28.77734375" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="6" max="6" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -531,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -548,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -562,24 +566,27 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -590,38 +597,38 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/courses.xlsx
+++ b/courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梅某彦\Desktop\毕设\hb-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FBB868-0AFF-42EF-A4B3-79C4E3836420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C3DF5C-9A61-430F-AE93-8840CADC1E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="2568" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信安综合实践</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dvwa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,6 +156,10 @@
   </si>
   <si>
     <t>Server2,HostA,HostM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信安综合实践（一）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -566,24 +566,24 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -597,7 +597,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -616,19 +616,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
